--- a/correlation_demo.xlsx
+++ b/correlation_demo.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\PycharmProjects\easy_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5297F5AF-9A59-4E6F-A949-1DB2B9D4F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF763C92-97AF-44CE-AE8A-8759B942DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="3240" windowWidth="28710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,23 +37,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>英語</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
+    <t>勉強時間</t>
+    <rPh sb="0" eb="4">
+      <t>ベンキョウジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>国語</t>
-    <rPh sb="0" eb="2">
-      <t>コクゴ</t>
+    <t>スマホ時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数学</t>
-    <rPh sb="0" eb="2">
-      <t>スウガク</t>
+    <t>睡眠時間</t>
+    <rPh sb="0" eb="4">
+      <t>スイミンジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,7 +402,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -427,189 +424,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
-        <v>51</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2">
-        <v>52</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2">
-        <v>49</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2">
-        <v>41</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
-        <v>47</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2">
-        <v>35</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2">
-        <v>35</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
-        <v>34</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2">
-        <v>51</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2">
-        <v>51</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2">
-        <v>58</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2">
-        <v>35</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2">
-        <v>34</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2">
-        <v>53</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2">
-        <v>60</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -617,912 +614,912 @@
         <v>51</v>
       </c>
       <c r="B19" s="2">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2">
-        <v>53</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2">
-        <v>34</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2">
-        <v>48</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2">
-        <v>43</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2">
-        <v>42</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2">
-        <v>39</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2">
-        <v>39</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2">
-        <v>32</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
-        <v>44</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2">
-        <v>33</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
-        <v>49</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2">
-        <v>33</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2">
-        <v>54</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
-        <v>59</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2">
-        <v>35</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>35</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2">
-        <v>49</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2">
-        <v>34</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C40" s="2">
-        <v>58</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2">
-        <v>50</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2">
-        <v>53</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2">
-        <v>60</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2">
-        <v>36</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2">
-        <v>53</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2">
-        <v>50</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2">
-        <v>36</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2">
-        <v>37</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>35</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2">
-        <v>36</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2">
-        <v>52</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2">
-        <v>52</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
-        <v>51</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2">
-        <v>39</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
-        <v>57</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2">
-        <v>44</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2">
-        <v>35</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2">
-        <v>37</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2">
-        <v>54</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C61" s="2">
-        <v>33</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2">
-        <v>34</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C66" s="2">
-        <v>59</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2">
-        <v>49</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2">
-        <v>32</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2">
-        <v>54</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2">
-        <v>36</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C72" s="2">
-        <v>56</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2">
-        <v>36</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2">
-        <v>39</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C75" s="2">
-        <v>38</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2">
-        <v>54</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
-        <v>38</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C78" s="2">
-        <v>46</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B79" s="2">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2">
-        <v>39</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
-        <v>40</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2">
-        <v>56</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C83" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C84" s="2">
-        <v>54</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>36</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2">
-        <v>33</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B87" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2">
-        <v>50</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2">
-        <v>39</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B90" s="2">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2">
-        <v>48</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2">
-        <v>30</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B92" s="2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2">
-        <v>32</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C93" s="2">
-        <v>49</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2">
-        <v>32</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C95" s="2">
-        <v>48</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="B96" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2">
-        <v>47</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B97" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C97" s="2">
-        <v>57</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="B98" s="2">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2">
-        <v>60</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="B99" s="2">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2">
-        <v>53</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B100" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2">
-        <v>51</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="B101" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C101" s="2">
-        <v>32</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/correlation_demo.xlsx
+++ b/correlation_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daiki\PycharmProjects\easy_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF763C92-97AF-44CE-AE8A-8759B942DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08689F8-A271-44F5-91B0-80F20ADE063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E64" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -449,7 +449,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
         <v>349</v>
@@ -460,7 +460,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2">
         <v>446</v>
@@ -471,7 +471,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>455</v>
@@ -482,7 +482,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2">
         <v>322</v>
@@ -493,7 +493,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
         <v>315</v>
@@ -504,7 +504,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2">
         <v>480</v>
@@ -515,7 +515,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2">
         <v>387</v>
@@ -526,7 +526,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <v>370</v>
@@ -537,7 +537,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2">
         <v>386</v>
@@ -548,7 +548,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2">
         <v>337</v>
@@ -559,7 +559,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="2">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2">
         <v>399</v>
@@ -570,7 +570,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="2">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2">
         <v>471</v>
@@ -581,7 +581,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>458</v>
@@ -592,7 +592,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2">
         <v>333</v>
@@ -603,7 +603,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2">
         <v>435</v>
@@ -614,7 +614,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2">
         <v>354</v>
@@ -625,7 +625,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2">
         <v>350</v>
@@ -636,7 +636,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2">
         <v>340</v>
@@ -647,7 +647,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2">
         <v>324</v>
@@ -658,7 +658,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>340</v>
@@ -669,7 +669,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2">
         <v>385</v>
@@ -680,7 +680,7 @@
         <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2">
         <v>447</v>
@@ -691,7 +691,7 @@
         <v>71</v>
       </c>
       <c r="B26" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2">
         <v>464</v>
@@ -702,7 +702,7 @@
         <v>72</v>
       </c>
       <c r="B27" s="2">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2">
         <v>331</v>
@@ -713,7 +713,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2">
         <v>333</v>
@@ -724,7 +724,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2">
         <v>480</v>
@@ -735,7 +735,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2">
         <v>387</v>
@@ -746,7 +746,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="2">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
         <v>350</v>
@@ -757,7 +757,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <v>463</v>
@@ -768,7 +768,7 @@
         <v>77</v>
       </c>
       <c r="B33" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>414</v>
@@ -779,7 +779,7 @@
         <v>77</v>
       </c>
       <c r="B34" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
         <v>382</v>
@@ -790,7 +790,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <v>476</v>
@@ -801,7 +801,7 @@
         <v>81</v>
       </c>
       <c r="B36" s="2">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2">
         <v>456</v>
@@ -812,7 +812,7 @@
         <v>82</v>
       </c>
       <c r="B37" s="2">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>468</v>
@@ -823,7 +823,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="2">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2">
         <v>475</v>
@@ -834,7 +834,7 @@
         <v>83</v>
       </c>
       <c r="B39" s="2">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2">
         <v>433</v>
@@ -845,7 +845,7 @@
         <v>83</v>
       </c>
       <c r="B40" s="2">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
         <v>406</v>
@@ -856,7 +856,7 @@
         <v>84</v>
       </c>
       <c r="B41" s="2">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C41" s="2">
         <v>376</v>
@@ -867,7 +867,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="2">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>466</v>
@@ -878,7 +878,7 @@
         <v>85</v>
       </c>
       <c r="B43" s="2">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
         <v>382</v>
@@ -889,7 +889,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="2">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
         <v>336</v>
@@ -900,7 +900,7 @@
         <v>86</v>
       </c>
       <c r="B45" s="2">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
         <v>301</v>
@@ -911,7 +911,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="2">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
         <v>314</v>
@@ -922,7 +922,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="2">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2">
         <v>446</v>
@@ -933,7 +933,7 @@
         <v>94</v>
       </c>
       <c r="B48" s="2">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2">
         <v>453</v>
@@ -944,7 +944,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="2">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2">
         <v>444</v>
@@ -955,7 +955,7 @@
         <v>96</v>
       </c>
       <c r="B50" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2">
         <v>432</v>
@@ -966,7 +966,7 @@
         <v>97</v>
       </c>
       <c r="B51" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C51" s="2">
         <v>452</v>
@@ -977,7 +977,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="2">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2">
         <v>346</v>
@@ -988,7 +988,7 @@
         <v>103</v>
       </c>
       <c r="B53" s="2">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2">
         <v>357</v>
@@ -999,7 +999,7 @@
         <v>103</v>
       </c>
       <c r="B54" s="2">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2">
         <v>430</v>
@@ -1010,7 +1010,7 @@
         <v>105</v>
       </c>
       <c r="B55" s="2">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2">
         <v>462</v>
@@ -1021,7 +1021,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="2">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2">
         <v>361</v>
@@ -1032,7 +1032,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="2">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2">
         <v>411</v>
@@ -1043,7 +1043,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="2">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2">
         <v>447</v>
@@ -1054,7 +1054,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="2">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2">
         <v>325</v>
@@ -1065,7 +1065,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2">
         <v>361</v>
@@ -1076,7 +1076,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="2">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2">
         <v>369</v>
@@ -1087,7 +1087,7 @@
         <v>116</v>
       </c>
       <c r="B62" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2">
         <v>414</v>
@@ -1098,7 +1098,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C63" s="2">
         <v>380</v>
@@ -1109,7 +1109,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2">
         <v>315</v>
@@ -1120,7 +1120,7 @@
         <v>122</v>
       </c>
       <c r="B65" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2">
         <v>365</v>
@@ -1131,7 +1131,7 @@
         <v>126</v>
       </c>
       <c r="B66" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2">
         <v>322</v>
@@ -1142,7 +1142,7 @@
         <v>129</v>
       </c>
       <c r="B67" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2">
         <v>343</v>
@@ -1153,7 +1153,7 @@
         <v>132</v>
       </c>
       <c r="B68" s="2">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2">
         <v>458</v>
@@ -1164,7 +1164,7 @@
         <v>133</v>
       </c>
       <c r="B69" s="2">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C69" s="2">
         <v>425</v>
@@ -1175,7 +1175,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="2">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C70" s="2">
         <v>462</v>
@@ -1186,7 +1186,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="2">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C71" s="2">
         <v>350</v>
@@ -1197,7 +1197,7 @@
         <v>138</v>
       </c>
       <c r="B72" s="2">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2">
         <v>329</v>
@@ -1208,7 +1208,7 @@
         <v>138</v>
       </c>
       <c r="B73" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2">
         <v>352</v>
@@ -1219,7 +1219,7 @@
         <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2">
         <v>318</v>
@@ -1230,7 +1230,7 @@
         <v>140</v>
       </c>
       <c r="B75" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2">
         <v>426</v>
@@ -1241,7 +1241,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="2">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2">
         <v>335</v>
@@ -1252,7 +1252,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="2">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2">
         <v>444</v>
@@ -1263,7 +1263,7 @@
         <v>142</v>
       </c>
       <c r="B78" s="2">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2">
         <v>355</v>
@@ -1274,7 +1274,7 @@
         <v>144</v>
       </c>
       <c r="B79" s="2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2">
         <v>315</v>
@@ -1285,7 +1285,7 @@
         <v>144</v>
       </c>
       <c r="B80" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
         <v>409</v>
@@ -1296,7 +1296,7 @@
         <v>144</v>
       </c>
       <c r="B81" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2">
         <v>397</v>
@@ -1307,7 +1307,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2">
         <v>432</v>
@@ -1318,7 +1318,7 @@
         <v>146</v>
       </c>
       <c r="B83" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2">
         <v>367</v>
@@ -1329,7 +1329,7 @@
         <v>146</v>
       </c>
       <c r="B84" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C84" s="2">
         <v>464</v>
@@ -1340,7 +1340,7 @@
         <v>148</v>
       </c>
       <c r="B85" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C85" s="2">
         <v>426</v>
@@ -1351,7 +1351,7 @@
         <v>149</v>
       </c>
       <c r="B86" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C86" s="2">
         <v>417</v>
@@ -1362,7 +1362,7 @@
         <v>150</v>
       </c>
       <c r="B87" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C87" s="2">
         <v>365</v>
@@ -1373,7 +1373,7 @@
         <v>152</v>
       </c>
       <c r="B88" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C88" s="2">
         <v>436</v>
@@ -1384,7 +1384,7 @@
         <v>154</v>
       </c>
       <c r="B89" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2">
         <v>346</v>
@@ -1395,7 +1395,7 @@
         <v>156</v>
       </c>
       <c r="B90" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C90" s="2">
         <v>372</v>
@@ -1406,7 +1406,7 @@
         <v>157</v>
       </c>
       <c r="B91" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C91" s="2">
         <v>357</v>
@@ -1417,7 +1417,7 @@
         <v>165</v>
       </c>
       <c r="B92" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C92" s="2">
         <v>308</v>
@@ -1428,7 +1428,7 @@
         <v>165</v>
       </c>
       <c r="B93" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C93" s="2">
         <v>377</v>
@@ -1439,7 +1439,7 @@
         <v>166</v>
       </c>
       <c r="B94" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2">
         <v>460</v>
@@ -1450,7 +1450,7 @@
         <v>168</v>
       </c>
       <c r="B95" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C95" s="2">
         <v>307</v>
@@ -1461,7 +1461,7 @@
         <v>172</v>
       </c>
       <c r="B96" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" s="2">
         <v>344</v>
@@ -1472,7 +1472,7 @@
         <v>172</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2">
         <v>446</v>
@@ -1483,7 +1483,7 @@
         <v>175</v>
       </c>
       <c r="B98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="2">
         <v>358</v>
@@ -1494,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="2">
         <v>351</v>
